--- a/table3.xlsx
+++ b/table3.xlsx
@@ -403,19 +403,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>8831.36052</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4415.68026</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>3207.84013</v>
       </c>
       <c r="E2" t="n">
-        <v>9313.746219999999</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4656.87311</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>3078.436555</v>
@@ -426,19 +426,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>10201.76522</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5100.882610000001</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>3850.441305</v>
       </c>
       <c r="E3" t="n">
-        <v>8551.696899999999</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4275.84845</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>2937.924225</v>
@@ -449,19 +449,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>24185.33612</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>12092.66806</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>7346.334029999999</v>
       </c>
       <c r="E4" t="n">
-        <v>11150.75131999999</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5575.375659999997</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>3937.687829999998</v>

--- a/table3.xlsx
+++ b/table3.xlsx
@@ -403,19 +403,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8819.291520000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6.0345</v>
       </c>
       <c r="D2" t="n">
         <v>3207.84013</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7880.87622</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>716.4350000000001</v>
       </c>
       <c r="G2" t="n">
         <v>3078.436555</v>
@@ -426,19 +426,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9328.369820000002</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>436.6977000000001</v>
       </c>
       <c r="D3" t="n">
         <v>3850.441305</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3734.440339999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2408.62828</v>
       </c>
       <c r="G3" t="n">
         <v>2937.924225</v>
@@ -449,19 +449,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>23132.80783999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>526.26414</v>
       </c>
       <c r="D4" t="n">
         <v>7346.334029999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10320.55531999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>415.098</v>
       </c>
       <c r="G4" t="n">
         <v>3937.687829999998</v>

--- a/table3.xlsx
+++ b/table3.xlsx
@@ -403,22 +403,22 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>8819.291520000001</v>
+        <v>8975.593940000001</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0345</v>
+        <v>22.0395</v>
       </c>
       <c r="D2" t="n">
-        <v>3207.84013</v>
+        <v>3254.918235</v>
       </c>
       <c r="E2" t="n">
-        <v>7880.87622</v>
+        <v>8200.59122</v>
       </c>
       <c r="F2" t="n">
         <v>716.4350000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>3078.436555</v>
+        <v>3158.365305</v>
       </c>
     </row>
     <row r="3">
@@ -426,22 +426,22 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>9328.369820000002</v>
+        <v>9326.418440000001</v>
       </c>
       <c r="C3" t="n">
-        <v>436.6977000000001</v>
+        <v>501.55178</v>
       </c>
       <c r="D3" t="n">
-        <v>3850.441305</v>
+        <v>3882.3805</v>
       </c>
       <c r="E3" t="n">
-        <v>3734.440339999999</v>
+        <v>3516.68356</v>
       </c>
       <c r="F3" t="n">
         <v>2408.62828</v>
       </c>
       <c r="G3" t="n">
-        <v>2937.924225</v>
+        <v>2883.48503</v>
       </c>
     </row>
     <row r="4">
@@ -449,22 +449,22 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>23132.80783999999</v>
+        <v>22981.07684</v>
       </c>
       <c r="C4" t="n">
-        <v>526.26414</v>
+        <v>579.33564</v>
       </c>
       <c r="D4" t="n">
-        <v>7346.334029999999</v>
+        <v>7334.93703</v>
       </c>
       <c r="E4" t="n">
-        <v>10320.55531999999</v>
+        <v>10224.47243999999</v>
       </c>
       <c r="F4" t="n">
         <v>415.098</v>
       </c>
       <c r="G4" t="n">
-        <v>3937.687829999998</v>
+        <v>3913.667109999999</v>
       </c>
     </row>
     <row r="5">

--- a/table3.xlsx
+++ b/table3.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,22 +470,22 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>8975.593940000001</v>
+        <v>8819.291520000001</v>
       </c>
       <c r="C2" t="n">
-        <v>22.0395</v>
+        <v>6.0345</v>
       </c>
       <c r="D2" t="n">
-        <v>3254.918235</v>
+        <v>3207.84013</v>
       </c>
       <c r="E2" t="n">
-        <v>8200.59122</v>
+        <v>7880.87622</v>
       </c>
       <c r="F2" t="n">
         <v>716.4350000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>3158.365305</v>
+        <v>3078.436555</v>
       </c>
     </row>
     <row r="3">
@@ -426,22 +493,22 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>9326.418440000001</v>
+        <v>9328.369820000002</v>
       </c>
       <c r="C3" t="n">
-        <v>501.55178</v>
+        <v>436.6977000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>3882.3805</v>
+        <v>3850.441305</v>
       </c>
       <c r="E3" t="n">
-        <v>3516.68356</v>
+        <v>3734.440339999999</v>
       </c>
       <c r="F3" t="n">
         <v>2408.62828</v>
       </c>
       <c r="G3" t="n">
-        <v>2883.48503</v>
+        <v>2937.924225</v>
       </c>
     </row>
     <row r="4">
@@ -449,22 +516,22 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>22981.07684</v>
+        <v>23132.80783999999</v>
       </c>
       <c r="C4" t="n">
-        <v>579.33564</v>
+        <v>526.26414</v>
       </c>
       <c r="D4" t="n">
-        <v>7334.93703</v>
+        <v>7346.334029999999</v>
       </c>
       <c r="E4" t="n">
-        <v>10224.47243999999</v>
+        <v>10320.55531999999</v>
       </c>
       <c r="F4" t="n">
         <v>415.098</v>
       </c>
       <c r="G4" t="n">
-        <v>3913.667109999999</v>
+        <v>3937.687829999998</v>
       </c>
     </row>
     <row r="5">
@@ -629,6 +696,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>